--- a/holidays/Список сотрудников.xlsx
+++ b/holidays/Список сотрудников.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Маппинг" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="250">
   <si>
     <t>ФИО</t>
   </si>
@@ -498,21 +498,6 @@
     <t>E-Mail (корпоративный)</t>
   </si>
   <si>
-    <t>dev_manager</t>
-  </si>
-  <si>
-    <t>test_manager</t>
-  </si>
-  <si>
-    <t>b2c_manager</t>
-  </si>
-  <si>
-    <t>ba_manager</t>
-  </si>
-  <si>
-    <t>SpecialMark</t>
-  </si>
-  <si>
     <t>Regina.Davytova</t>
   </si>
   <si>
@@ -781,13 +766,40 @@
   </si>
   <si>
     <t>ID Роли</t>
+  </si>
+  <si>
+    <t>Код подразделения</t>
+  </si>
+  <si>
+    <t>DepartmentCRM</t>
+  </si>
+  <si>
+    <t>DivisionB2C</t>
+  </si>
+  <si>
+    <t>DivisionCRM</t>
+  </si>
+  <si>
+    <t>SpecialCode</t>
+  </si>
+  <si>
+    <t>DevManager</t>
+  </si>
+  <si>
+    <t>B2CManager</t>
+  </si>
+  <si>
+    <t>TestManager</t>
+  </si>
+  <si>
+    <t>BAManager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,6 +872,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -911,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -968,6 +989,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -995,25 +1019,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -1140,28 +1145,21 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1245,6 +1243,32 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1259,36 +1283,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R91" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:R91" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:R91"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="ФИО" dataDxfId="19"/>
-    <tableColumn id="11" name="ID" dataDxfId="18"/>
-    <tableColumn id="13" name="Фамилия" dataDxfId="17">
+    <tableColumn id="1" name="ФИО" dataDxfId="17"/>
+    <tableColumn id="11" name="ID" dataDxfId="16"/>
+    <tableColumn id="13" name="Фамилия" dataDxfId="15">
       <calculatedColumnFormula>MID(A2,1,FIND(" ",A2,1)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="Имя" dataDxfId="16">
+    <tableColumn id="14" name="Имя" dataDxfId="14">
       <calculatedColumnFormula>MID(A2,FIND(" ",A2,1)+1,FIND(" ",A2,FIND(" ",A2,1)+1)-FIND(" ",A2,1)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Отчество" dataDxfId="15">
+    <tableColumn id="15" name="Отчество" dataDxfId="13">
       <calculatedColumnFormula>MID(A2,FIND(" ",A2,FIND(" ",A2,1)+1)+1, LEN(A2)-FIND(" ",A2,FIND(" ",A2,1)+1)+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="login_name" dataDxfId="14"/>
-    <tableColumn id="18" name="E-Mail (корпоративный)" dataDxfId="2">
+    <tableColumn id="17" name="login_name" dataDxfId="12"/>
+    <tableColumn id="18" name="E-Mail (корпоративный)" dataDxfId="11">
       <calculatedColumnFormula>IF(F2="admin","mabramkin@gmail.com", CONCATENATE(F2, "@RT.RU"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="SpecialMark" dataDxfId="13"/>
-    <tableColumn id="2" name="Название роли в системе отпусков" dataDxfId="12"/>
-    <tableColumn id="3" name="Тип роли в системе отпусков" dataDxfId="11"/>
-    <tableColumn id="4" name="Команда сотрудника в системе отпусков" dataDxfId="10"/>
-    <tableColumn id="5" name="Команды под управлением" dataDxfId="9"/>
-    <tableColumn id="9" name="Комментарий" dataDxfId="8"/>
-    <tableColumn id="10" name="Условие" dataDxfId="7"/>
-    <tableColumn id="8" name="Подразделение в системе отпусков" dataDxfId="6"/>
-    <tableColumn id="6" name="Project_Role_Id" dataDxfId="1">
+    <tableColumn id="16" name="SpecialCode" dataDxfId="10"/>
+    <tableColumn id="2" name="Название роли в системе отпусков" dataDxfId="9"/>
+    <tableColumn id="3" name="Тип роли в системе отпусков" dataDxfId="8"/>
+    <tableColumn id="4" name="Команда сотрудника в системе отпусков" dataDxfId="7"/>
+    <tableColumn id="5" name="Команды под управлением" dataDxfId="6"/>
+    <tableColumn id="9" name="Комментарий" dataDxfId="5"/>
+    <tableColumn id="10" name="Условие" dataDxfId="4"/>
+    <tableColumn id="8" name="Подразделение в системе отпусков" dataDxfId="3"/>
+    <tableColumn id="6" name="Project_Role_Id" dataDxfId="2">
       <calculatedColumnFormula>IF(J2="Обычная роль",1,IF(J2="Тимлид команды",2,IF(J2="Руководитель проекта",3,IF(J2="Линейный руководитель",4,IF(J2="Супервизор",5,"")))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Team_Id" dataDxfId="3">
+    <tableColumn id="7" name="Team_Id" dataDxfId="1">
       <calculatedColumnFormula>IF(K2="EPC РТИ",1,IF(K2="Бизнес-параметры РТИ",2,IF(K2="Продажи РТИ",3,IF(K2="Системный анализ",4,IF(K2="Техподдержка РТИ",5,IF(K2="Техпродажи РТИ",6,IF(K2="Тимлиды команд",7,IF(K2="ТП v2.0 РТИ",8,IF(K2="Управление",9,IF(K2="Миграция",10,IF(K2="Руководство",11,"")))))))))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" name="Создание пользователя" dataDxfId="0">
@@ -1565,8 +1589,8 @@
   <dimension ref="A1:R91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R4" sqref="R4"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1614,7 +1638,7 @@
         <v>150</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>38</v>
@@ -1638,10 +1662,10 @@
         <v>52</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>144</v>
@@ -1719,7 +1743,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>130</v>
@@ -1767,7 +1791,7 @@
         <v>Maksim.Abramkin@RT.RU</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>151</v>
+        <v>246</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>55</v>
@@ -1830,7 +1854,7 @@
         <v>Farkhad.G.Tokhtamov@RT.RU</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>55</v>
@@ -1866,7 +1890,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Тохтамов', 'Фархад', 'Гапарович', 'Farkhad.G.Tokhtamov', 'Farkhad.G.Tokhtamov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,9,5);</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>31</v>
       </c>
@@ -1886,7 +1910,7 @@
         <v>Алмазовна</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="3"/>
@@ -1940,7 +1964,7 @@
         <v>Николаевич</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="3"/>
@@ -1974,7 +1998,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Волынин', 'Денис', 'Николаевич', 'Denis.Volynin', 'Denis.Volynin@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 1,9,3);</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>33</v>
       </c>
@@ -1994,7 +2018,7 @@
         <v>Васильевич</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2028,7 +2052,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Кашин', 'Вадим', 'Васильевич', 'Vadim.Kashin', 'Vadim.Kashin@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 1,9,3);</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
@@ -2048,7 +2072,7 @@
         <v>Александрович</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G9" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2102,14 +2126,14 @@
         <v>Сергеевич</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G10" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Ivan.Artemev@RT.RU</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>22</v>
@@ -2143,7 +2167,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Артемьев', 'Иван', 'Сергеевич', 'Ivan.Artemev', 'Ivan.Artemev@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,9,4);</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>42</v>
       </c>
@@ -2163,7 +2187,7 @@
         <v>Сергеевич</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G11" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2217,7 +2241,7 @@
         <v>Игоревна</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G12" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2275,14 +2299,14 @@
         <v>Владимировна</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G13" s="5" t="str">
         <f t="shared" si="3"/>
         <v>Margarita.Popova@RT.RU</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>59</v>
@@ -2316,7 +2340,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Андриановская', 'Маргарита', 'Владимировна', 'Margarita.Popova', 'Margarita.Popova@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,9,4);</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
@@ -2336,7 +2360,7 @@
         <v>Сергеевна</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2367,7 +2391,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Белькова', 'Екатерина', 'Сергеевна', 'Ekaterina.Belkova', 'Ekaterina.Belkova@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,4,1);</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
@@ -2387,7 +2411,7 @@
         <v>Михайлович</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2418,7 +2442,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Брюховецкий', 'Федор', 'Михайлович', 'Fedor.Bryukhovetskiy', 'Fedor.Bryukhovetskiy@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,4,1);</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
@@ -2438,7 +2462,7 @@
         <v>Дмитриевич</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G16" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2469,7 +2493,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Вязов', 'Андрей', 'Дмитриевич', 'Andrey.Vyazov', 'Andrey.Vyazov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,5,1);</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -2489,7 +2513,7 @@
         <v>Сергеевич</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G17" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2520,7 +2544,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Кириллов', 'Максим', 'Сергеевич', 'Maksim.S.Kirillov', 'Maksim.S.Kirillov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,6,1);</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -2540,7 +2564,7 @@
         <v>Сергеевна</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G18" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2571,7 +2595,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Ковалева', 'Наталья', 'Сергеевна', 'Natalya.S.Kovaleva', 'Natalya.S.Kovaleva@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,4,1);</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>14</v>
       </c>
@@ -2591,7 +2615,7 @@
         <v>Владимирович</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2622,7 +2646,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Мазин', 'Владимир', 'Владимирович', 'Vladimir.Mazin', 'Vladimir.Mazin@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,3,1);</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -2642,7 +2666,7 @@
         <v>Хикматовна</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G20" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2673,7 +2697,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Потапова', 'Кристина', 'Хикматовна', 'Kristina.K.Potapova', 'Kristina.K.Potapova@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,8,1);</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
@@ -2693,7 +2717,7 @@
         <v>Владимирович</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G21" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2724,7 +2748,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Ромашов', 'Павел', 'Владимирович', 'Pavel.Romashov', 'Pavel.Romashov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,4,1);</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
@@ -2744,7 +2768,7 @@
         <v>Викторовна</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G22" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2775,7 +2799,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Роор', 'Анастасия', 'Викторовна', 'Anastasiya.Roor', 'Anastasiya.Roor@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,3,1);</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
@@ -2795,7 +2819,7 @@
         <v>Вадимович</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G23" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2826,7 +2850,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Синкевич', 'Вадим', 'Вадимович', 'Vadim.Sinkevich', 'Vadim.Sinkevich@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,3,1);</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
@@ -2846,7 +2870,7 @@
         <v>Александрович</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G24" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2897,7 +2921,7 @@
         <v>Александровна</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G25" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2951,7 +2975,7 @@
         <v>Дмитриевна</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G26" s="5" t="str">
         <f t="shared" si="3"/>
@@ -3005,7 +3029,7 @@
         <v>Александрович</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G27" s="5" t="str">
         <f t="shared" si="3"/>
@@ -3059,7 +3083,7 @@
         <v>Юрьевна</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G28" s="14" t="str">
         <f t="shared" si="3"/>
@@ -3094,7 +3118,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Карпова', 'Анастасия', 'Юрьевна', 'Anastasiya.Y.Karpova', 'Anastasiya.Y.Karpova@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,4,1);</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>29</v>
       </c>
@@ -3114,7 +3138,7 @@
         <v>Сагателовна</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G29" s="5" t="str">
         <f t="shared" si="3"/>
@@ -3145,7 +3169,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Амбарян', 'Арусяк', 'Сагателовна', 'Arusyak.Ambaryan', 'Arusyak.Ambaryan@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,4,1);</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>30</v>
       </c>
@@ -3165,7 +3189,7 @@
         <v>Вячеславовна</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G30" s="5" t="str">
         <f t="shared" si="3"/>
@@ -3196,7 +3220,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Андропова', 'Ирина', 'Вячеславовна', 'Irina.Andropova', 'Irina.Andropova@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 3,4,1);</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>136</v>
       </c>
@@ -3216,7 +3240,7 @@
         <v>Дмитриевич</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G31" s="5" t="str">
         <f t="shared" si="3"/>
@@ -3267,7 +3291,7 @@
         <v>Игоревич</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G32" s="15" t="str">
         <f t="shared" si="3"/>
@@ -3304,7 +3328,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Кошкарёв', 'Максим', 'Игоревич', 'Maksim.Koshkaryov', 'Maksim.Koshkaryov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,7,2);</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>109</v>
       </c>
@@ -3324,7 +3348,7 @@
         <v>Евгеньевич</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G33" s="5" t="str">
         <f t="shared" si="3"/>
@@ -3355,7 +3379,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Стариков', 'Алексей', 'Евгеньевич', 'Aleksey.Starikov', 'Aleksey.Starikov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,5,1);</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>86</v>
       </c>
@@ -3375,7 +3399,7 @@
         <v>Иванович</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G34" s="5" t="str">
         <f t="shared" ref="G34:G65" si="7">IF(F34="admin","mabramkin@gmail.com", CONCATENATE(F34, "@RT.RU"))</f>
@@ -3406,7 +3430,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Шевцов', 'Сергей', 'Иванович', 'Sergey.I.Shevtsov', 'Sergey.I.Shevtsov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,5,1);</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>110</v>
       </c>
@@ -3426,7 +3450,7 @@
         <v>Александровна</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G35" s="5" t="str">
         <f t="shared" si="7"/>
@@ -3457,7 +3481,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Суханова', 'Елизавета', 'Александровна', 'Elizaveta.Sukhanova', 'Elizaveta.Sukhanova@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,5,1);</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>137</v>
       </c>
@@ -3477,7 +3501,7 @@
         <v>Игоревна</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G36" s="5" t="str">
         <f t="shared" si="7"/>
@@ -3508,7 +3532,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Лебедева', 'Наталья', 'Игоревна', 'Nataliya.I.Lebedeva', 'Nataliya.I.Lebedeva@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,5,1);</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>138</v>
       </c>
@@ -3528,7 +3552,7 @@
         <v>Масисович</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G37" s="5" t="str">
         <f t="shared" si="7"/>
@@ -3579,7 +3603,7 @@
         <v>Сергеевич</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G38" s="18" t="str">
         <f t="shared" si="7"/>
@@ -3614,7 +3638,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Ельников', 'Алексей', 'Сергеевич', 'Aleksey.Elnikov', 'Aleksey.Elnikov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,5,1);</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>85</v>
       </c>
@@ -3634,7 +3658,7 @@
         <v>Сергеевна</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G39" s="5" t="str">
         <f t="shared" si="7"/>
@@ -3665,7 +3689,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Чурбанова', 'Полина', 'Сергеевна', 'Polina.Churbanova', 'Polina.Churbanova@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,5,1);</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>98</v>
       </c>
@@ -3685,7 +3709,7 @@
         <v>Сергеевна</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G40" s="5" t="str">
         <f t="shared" si="7"/>
@@ -3716,7 +3740,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Коноплева', 'Анастасия', 'Сергеевна', 'Anastasiya.Konopleva', 'Anastasiya.Konopleva@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,5,1);</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>80</v>
       </c>
@@ -3736,7 +3760,7 @@
         <v>Игоревич</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G41" s="5" t="str">
         <f t="shared" si="7"/>
@@ -3787,7 +3811,7 @@
         <v>Юрьевна</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G42" s="15" t="str">
         <f t="shared" si="7"/>
@@ -3824,7 +3848,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Егорова', 'Анастасия', 'Юрьевна', 'Anastasiya.Egorova', 'Anastasiya.Egorova@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,7,2);</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>71</v>
       </c>
@@ -3844,7 +3868,7 @@
         <v>Сергеевич</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G43" s="5" t="str">
         <f t="shared" si="7"/>
@@ -3875,7 +3899,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Величко', 'Кирилл', 'Сергеевич', 'Kirill.Velichko', 'Kirill.Velichko@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,3,1);</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>77</v>
       </c>
@@ -3895,7 +3919,7 @@
         <v>Александрович</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G44" s="5" t="str">
         <f t="shared" si="7"/>
@@ -3926,7 +3950,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Кононов', 'Петр', 'Александрович', 'Petr.A.Kononov', 'Petr.A.Kononov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,3,1);</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>82</v>
       </c>
@@ -3946,7 +3970,7 @@
         <v>Николаевич</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G45" s="5" t="str">
         <f t="shared" si="7"/>
@@ -3977,7 +4001,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Самарский', 'Иван', 'Николаевич', 'Ivan.Samarskiy', 'Ivan.Samarskiy@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,3,1);</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>105</v>
       </c>
@@ -3997,7 +4021,7 @@
         <v>Игоревич</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G46" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4028,7 +4052,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Новиков', 'Елисей', 'Игоревич', 'Elisey.Novikov', 'Elisey.Novikov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,3,1);</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>101</v>
       </c>
@@ -4048,7 +4072,7 @@
         <v>Александрович</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G47" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4099,7 +4123,7 @@
         <v>Игоревич</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G48" s="12" t="str">
         <f t="shared" si="7"/>
@@ -4134,7 +4158,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Фомичев', 'Андрей', 'Игоревич', 'Andrey.Fomichev', 'Andrey.Fomichev@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,3,1);</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>123</v>
       </c>
@@ -4154,7 +4178,7 @@
         <v>Юрьевич</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G49" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4185,7 +4209,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Кузнец', 'Станислав', 'Юрьевич', 'Stanislav.Kuznets', 'Stanislav.Kuznets@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,3,1);</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>141</v>
       </c>
@@ -4205,7 +4229,7 @@
         <v>Михайлович</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G50" s="9" t="str">
         <f t="shared" si="7"/>
@@ -4236,7 +4260,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Ефремов', 'Василий', 'Михайлович', 'Vasiliy.Efremov', 'Vasiliy.Efremov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,3,1);</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>124</v>
       </c>
@@ -4256,7 +4280,7 @@
         <v>Дмитриевич</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G51" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4307,7 +4331,7 @@
         <v>Вячеславович</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G52" s="15" t="str">
         <f t="shared" si="7"/>
@@ -4344,7 +4368,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Комаров', 'Игорь', 'Вячеславович', 'Igor.Komarov', 'Igor.Komarov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,7,2);</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>67</v>
       </c>
@@ -4364,7 +4388,7 @@
         <v>Сергеевна</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G53" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4395,7 +4419,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Артемьева', 'Елена', 'Сергеевна', 'Elena.S.Artemeva', 'Elena.S.Artemeva@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,1,1);</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>89</v>
       </c>
@@ -4415,7 +4439,7 @@
         <v>Васильевич</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G54" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4446,7 +4470,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Чурин', 'Андрей', 'Васильевич', 'Andrey.Churin', 'Andrey.Churin@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,1,1);</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>99</v>
       </c>
@@ -4466,7 +4490,7 @@
         <v>Дмитриевна</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G55" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4497,7 +4521,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Краюшкина', 'Ольга', 'Дмитриевна', 'Olga.Krayushkina', 'Olga.Krayushkina@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,1,1);</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>93</v>
       </c>
@@ -4517,7 +4541,7 @@
         <v>Ивановна</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G56" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4548,7 +4572,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Гаряева', 'Татьяна', 'Ивановна', 'Tatyana.Garyaeva', 'Tatyana.Garyaeva@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,1,1);</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>95</v>
       </c>
@@ -4568,7 +4592,7 @@
         <v>Владимировна</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G57" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4599,7 +4623,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Дмитриева', 'Людмила', 'Владимировна', 'Lyudmila.Dmitrieva', 'Lyudmila.Dmitrieva@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,1,1);</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>142</v>
       </c>
@@ -4619,7 +4643,7 @@
         <v>Юрьевич</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G58" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4650,7 +4674,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Кузьмин', 'Андрей', 'Юрьевич', 'Andrey.Kuzmin', 'Andrey.Kuzmin@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,1,1);</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>74</v>
       </c>
@@ -4670,7 +4694,7 @@
         <v>Михайловна</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G59" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4701,7 +4725,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Дмитриева', 'Светлана', 'Михайловна', 'Svetlana.M.Dmitrieva', 'Svetlana.M.Dmitrieva@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,1,1);</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>113</v>
       </c>
@@ -4721,7 +4745,7 @@
         <v>Калимуллович</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G60" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4752,7 +4776,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Ларин', 'Дмитрий', 'Калимуллович', 'Dmitriy.Larin', 'Dmitriy.Larin@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,1,1);</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>140</v>
       </c>
@@ -4772,7 +4796,7 @@
         <v>Исатаевна</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G61" s="14" t="str">
         <f t="shared" si="7"/>
@@ -4804,7 +4828,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Утепешова', 'Эльвира', 'Исатаевна', 'Elvira.Utepeshova', 'Elvira.Utepeshova@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,1,1);</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>87</v>
       </c>
@@ -4824,7 +4848,7 @@
         <v>Михайлович</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G62" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4875,7 +4899,7 @@
         <v>Евгеньевич</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G63" s="15" t="str">
         <f t="shared" si="7"/>
@@ -4912,7 +4936,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Орлов', 'Дмитрий', 'Евгеньевич', 'Dmitriy.Orlov', 'Dmitriy.Orlov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,7,2);</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>73</v>
       </c>
@@ -4932,7 +4956,7 @@
         <v>Александровна</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G64" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4963,7 +4987,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Горюнова', 'Софья', 'Александровна', 'Sofya.Goryunova', 'Sofya.Goryunova@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,6,1);</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>81</v>
       </c>
@@ -4983,7 +5007,7 @@
         <v>Николаевич</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G65" s="5" t="str">
         <f t="shared" si="7"/>
@@ -5014,7 +5038,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Одиноков', 'Николай', 'Николаевич', 'Nikolay.Odinokov', 'Nikolay.Odinokov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,6,1);</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>83</v>
       </c>
@@ -5034,10 +5058,10 @@
         <v>Николаевич</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G66" s="5" t="str">
-        <f t="shared" ref="G66:G97" si="14">IF(F66="admin","mabramkin@gmail.com", CONCATENATE(F66, "@RT.RU"))</f>
+        <f t="shared" ref="G66:G91" si="14">IF(F66="admin","mabramkin@gmail.com", CONCATENATE(F66, "@RT.RU"))</f>
         <v>Igor.N.Seleznev@RT.RU</v>
       </c>
       <c r="I66" s="5" t="s">
@@ -5061,11 +5085,11 @@
         <v>6</v>
       </c>
       <c r="R66" s="5" t="str">
-        <f t="shared" ref="R66:R97" si="17">CONCATENATE("INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), '",C66,"', '",D66,"', '", E66, "', '",F66,"', '",G66,"', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', ",IF(O66="Департамент внедрения и развития CRM решений",1,IF(O66="Отдел развития CRM решений",2,IF(O66="Отдел внедрения решений сегмента B2C",3,"null"))),",",IF(Q66="","null",Q66),",",IF(P66="","null",P66),");")</f>
+        <f t="shared" ref="R66:R91" si="17">CONCATENATE("INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), '",C66,"', '",D66,"', '", E66, "', '",F66,"', '",G66,"', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', ",IF(O66="Департамент внедрения и развития CRM решений",1,IF(O66="Отдел развития CRM решений",2,IF(O66="Отдел внедрения решений сегмента B2C",3,"null"))),",",IF(Q66="","null",Q66),",",IF(P66="","null",P66),");")</f>
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Селезнев', 'Игорь', 'Николаевич', 'Igor.N.Seleznev', 'Igor.N.Seleznev@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,6,1);</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>100</v>
       </c>
@@ -5085,7 +5109,7 @@
         <v>Вячеславович</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G67" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5116,7 +5140,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Курбатов', 'Вадим', 'Вячеславович', 'Vadim.Kurbatov', 'Vadim.Kurbatov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,6,1);</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>111</v>
       </c>
@@ -5136,7 +5160,7 @@
         <v>Евгеньевич</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G68" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5167,7 +5191,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Трофимов', 'Андрей', 'Евгеньевич', 'A.E.Trofimov', 'A.E.Trofimov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,6,1);</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>84</v>
       </c>
@@ -5187,7 +5211,7 @@
         <v>Андреевич</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G69" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5218,7 +5242,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Фоменко', 'Александр', 'Андреевич', 'Aleksandr.Fomenko', 'Aleksandr.Fomenko@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,6,1);</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>108</v>
       </c>
@@ -5238,7 +5262,7 @@
         <v>Викторович</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G70" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5269,7 +5293,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Самохин', 'Евгений', 'Викторович', 'Evgeniy.Samokhin', 'Evgeniy.Samokhin@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,6,1);</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>122</v>
       </c>
@@ -5289,7 +5313,7 @@
         <v>Юрьевич</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G71" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5320,7 +5344,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Крятов', 'Илья', 'Юрьевич', 'Ilya.Kryatov', 'Ilya.Kryatov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,6,1);</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>102</v>
       </c>
@@ -5340,7 +5364,7 @@
         <v>Владимирович</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G72" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5391,7 +5415,7 @@
         <v>Витальевич</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G73" s="15" t="str">
         <f t="shared" si="14"/>
@@ -5428,7 +5452,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Кулешов', 'Вячеслав', 'Витальевич', 'Vyacheslav.Kuleshov', 'Vyacheslav.Kuleshov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,7,2);</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>78</v>
       </c>
@@ -5448,7 +5472,7 @@
         <v>Владимирович</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G74" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5479,7 +5503,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Косенко', 'Дмитрий', 'Владимирович', 'Dmitriy.Kosenko', 'Dmitriy.Kosenko@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,8,1);</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>96</v>
       </c>
@@ -5499,7 +5523,7 @@
         <v>Владимировна</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G75" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5530,7 +5554,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Зверева', 'Екатерина', 'Владимировна', 'Ekaterina.Zvereva', 'Ekaterina.Zvereva@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,8,1);</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>103</v>
       </c>
@@ -5550,7 +5574,7 @@
         <v>Адельевич</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G76" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5581,7 +5605,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Надеев', 'Айвар', 'Адельевич', 'Ayvar.Nadeev', 'Ayvar.Nadeev@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,8,1);</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>107</v>
       </c>
@@ -5601,7 +5625,7 @@
         <v>Викторович</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G77" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5632,7 +5656,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Романов', 'Виктор', 'Викторович', 'Viktor.Romanov', 'Viktor.Romanov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,8,1);</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>97</v>
       </c>
@@ -5652,7 +5676,7 @@
         <v>Андреевич</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G78" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5683,7 +5707,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Колоколов', 'Александр', 'Андреевич', 'Aleksandr.Kolokolov', 'Aleksandr.Kolokolov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,8,1);</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>125</v>
       </c>
@@ -5703,7 +5727,7 @@
         <v>Сергеевич</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G79" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5734,7 +5758,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Буравцов', 'Владимир', 'Сергеевич', 'Vladimir.Buravtsov', 'Vladimir.Buravtsov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,8,1);</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>90</v>
       </c>
@@ -5754,7 +5778,7 @@
         <v>Владимирович</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G80" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5785,7 +5809,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Александров', 'Николай', 'Владимирович', 'Nikolay.Aleksandrov', 'Nikolay.Aleksandrov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,8,1);</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>91</v>
       </c>
@@ -5805,7 +5829,7 @@
         <v>Игоревич</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G81" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5836,7 +5860,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Вахромеев', 'Дмитрий', 'Игоревич', 'Dmitriy.Vakhromeev', 'Dmitriy.Vakhromeev@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,8,1);</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>106</v>
       </c>
@@ -5856,7 +5880,7 @@
         <v>Фатыхович</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G82" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5887,7 +5911,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Ракипов', 'Шамиль', 'Фатыхович', 'Shamil.Rakipov', 'Shamil.Rakipov@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,8,1);</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>79</v>
       </c>
@@ -5907,7 +5931,7 @@
         <v>Николаевич</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G83" s="5" t="str">
         <f t="shared" si="14"/>
@@ -5958,7 +5982,7 @@
         <v>Алексеевич</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G84" s="15" t="str">
         <f t="shared" si="14"/>
@@ -5995,7 +6019,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Видавский', 'Сергей', 'Алексеевич', 'Sergey.Vidavskiy', 'Sergey.Vidavskiy@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,7,2);</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>92</v>
       </c>
@@ -6015,7 +6039,7 @@
         <v>Алексеевна</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G85" s="5" t="str">
         <f t="shared" si="14"/>
@@ -6046,7 +6070,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Волкова', 'Евгения', 'Алексеевна', 'Evgeniya.Volkova', 'Evgeniya.Volkova@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,2,1);</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>104</v>
       </c>
@@ -6066,7 +6090,7 @@
         <v>Юрьевич</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G86" s="5" t="str">
         <f t="shared" si="14"/>
@@ -6097,7 +6121,7 @@
         <v>INSERT INTO employee (emp_id, created, last_name, first_name, middle_name, login_name, email, password, department_id, team_id, project_role_id) VALUES (nextval('seq_emp_id'), now(), 'Найбауер', 'Николай', 'Юрьевич', 'Nikolay.Naybauer', 'Nikolay.Naybauer@RT.RU', '$2a$10$Y3rnhDtTCSsADDxyDACRW.uAt6Ipuv9V0vsKDfumsyb5CAPaqkzi2', 2,2,1);</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>70</v>
       </c>
@@ -6117,7 +6141,7 @@
         <v>Вадимович</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G87" s="5" t="str">
         <f t="shared" si="14"/>
@@ -6168,7 +6192,7 @@
         <v>Гафуровна</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G88" s="12" t="str">
         <f t="shared" si="14"/>
@@ -6340,10 +6364,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6352,22 +6376,23 @@
     <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="47.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>45</v>
@@ -6375,8 +6400,11 @@
       <c r="F1" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -6395,8 +6423,11 @@
       <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -6415,8 +6446,11 @@
       <c r="F3" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -6435,8 +6469,11 @@
       <c r="F4" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -6453,7 +6490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -6470,7 +6507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -6481,7 +6518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>59</v>
       </c>
@@ -6492,7 +6529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -6503,7 +6540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -6514,7 +6551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -6525,7 +6562,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>69</v>
       </c>
@@ -6533,16 +6570,16 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>115</v>
       </c>
@@ -6571,12 +6608,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
